--- a/biology/Biochimie/Protéine_inactivant_les_ribosomes/Protéine_inactivant_les_ribosomes.xlsx
+++ b/biology/Biochimie/Protéine_inactivant_les_ribosomes/Protéine_inactivant_les_ribosomes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_inactivant_les_ribosomes</t>
+          <t>Protéine_inactivant_les_ribosomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les protéines inactivant les ribosomes, ou ribosome-inactivating proteins (abrégé en RIP), sont des protéines inhibant la synthèse protéique des cellules grâce à leur activité enzymatique qui désactive les ribosomes des organismes eukaryotes[1]. Ce terme désigne une grande famille de protéines qui agissent comme des N-glycosylases de l'ARNr (EC 3.2.2.22). Elles inactivent les sous-unités ribosomiques 60S par un clivage N-glycosidique, qui libère une base adénine spécifique du squelette sucre-phosphate de l'ARNr 28S[2],[3],[4]. Les RIPs sont retrouvés surtout chez les plantes et les bactéries mais aussi dans certains champignons et animaux[1],[5].
-Cette famille de protéines comprend les toxines de Shiga et assimilées, et les RIPs de type I (par exemple trichosanthine et luffine) et type II (par exemple ricine, agglutinine I du ricin et abrine). Toutes ces toxines sont structurellement apparentées. Les RIPs présentent un intérêt considérable en raison de leur utilisation potentielle, conjuguée avec les anticorps monoclonaux, comme immunotoxines pour traiter le cancer. L'élucidation des relations entre structures et fonctions des RIPs a par conséquent fait l'objet de recherches importantes[1],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les protéines inactivant les ribosomes, ou ribosome-inactivating proteins (abrégé en RIP), sont des protéines inhibant la synthèse protéique des cellules grâce à leur activité enzymatique qui désactive les ribosomes des organismes eukaryotes. Ce terme désigne une grande famille de protéines qui agissent comme des N-glycosylases de l'ARNr (EC 3.2.2.22). Elles inactivent les sous-unités ribosomiques 60S par un clivage N-glycosidique, qui libère une base adénine spécifique du squelette sucre-phosphate de l'ARNr 28S. Les RIPs sont retrouvés surtout chez les plantes et les bactéries mais aussi dans certains champignons et animaux,.
+Cette famille de protéines comprend les toxines de Shiga et assimilées, et les RIPs de type I (par exemple trichosanthine et luffine) et type II (par exemple ricine, agglutinine I du ricin et abrine). Toutes ces toxines sont structurellement apparentées. Les RIPs présentent un intérêt considérable en raison de leur utilisation potentielle, conjuguée avec les anticorps monoclonaux, comme immunotoxines pour traiter le cancer. L'élucidation des relations entre structures et fonctions des RIPs a par conséquent fait l'objet de recherches importantes,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_inactivant_les_ribosomes</t>
+          <t>Protéine_inactivant_les_ribosomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
